--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file\code\prearth\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54545655-AA3D-48F5-BFBB-CFB6541CE619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="11540"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proportion Table" sheetId="1" r:id="rId1"/>
@@ -124,107 +130,114 @@
     <t>18-44yrs</t>
   </si>
   <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>NHW</t>
+  </si>
+  <si>
+    <t>NHB</t>
+  </si>
+  <si>
+    <t>race5</t>
+  </si>
+  <si>
+    <t>NHA</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>insu-no</t>
+  </si>
+  <si>
+    <t>insu-yes</t>
+  </si>
+  <si>
+    <t>pov-no</t>
+  </si>
+  <si>
+    <t>pov-yes</t>
+  </si>
+  <si>
+    <t>smok-yes</t>
+  </si>
+  <si>
+    <t>smok-no</t>
+  </si>
+  <si>
+    <t>smok-unknown</t>
+  </si>
+  <si>
+    <t>phys-vigorous</t>
+  </si>
+  <si>
+    <t>phys-moderate</t>
+  </si>
+  <si>
+    <t>phys-no</t>
+  </si>
+  <si>
     <t>44-65yrs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&gt;65yrs</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>NHW</t>
-  </si>
-  <si>
-    <t>NHB</t>
-  </si>
-  <si>
-    <t>race5</t>
-  </si>
-  <si>
-    <t>NHA</t>
-  </si>
-  <si>
-    <t>OR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;high school</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>high school graduate and some college</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>college graduate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bmi&lt;18.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bmi18.5-25.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bmi25.0-30.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bmi30.0-35.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bmi35.0-40.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bmi&gt;=40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>wai-no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>wai-yes</t>
-  </si>
-  <si>
-    <t>insu-no</t>
-  </si>
-  <si>
-    <t>insu-yes</t>
-  </si>
-  <si>
-    <t>pov-no</t>
-  </si>
-  <si>
-    <t>pov-yes</t>
-  </si>
-  <si>
-    <t>smok-yes</t>
-  </si>
-  <si>
-    <t>smok-no</t>
-  </si>
-  <si>
-    <t>smok-unknown</t>
-  </si>
-  <si>
-    <t>phys-vigorous</t>
-  </si>
-  <si>
-    <t>phys-moderate</t>
-  </si>
-  <si>
-    <t>phys-no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -232,163 +245,23 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,194 +280,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -602,315 +289,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1168,24 +572,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.6875"/>
+    <col min="1" max="4" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1193,49 +597,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.782173276734693</v>
+        <v>0.78217327673469295</v>
       </c>
       <c r="B2">
-        <v>0.674531584705115</v>
+        <v>0.67453158470511498</v>
       </c>
       <c r="C2" s="1">
         <v>0.217826723265307</v>
       </c>
       <c r="D2" s="1">
-        <v>0.325468415294885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.32546841529488502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.00842636927153063</v>
+        <v>8.4263692715306308E-3</v>
       </c>
       <c r="B3">
-        <v>0.0092095284078988</v>
+        <v>9.2095284078987996E-3</v>
       </c>
       <c r="C3">
-        <v>0.00842636927153063</v>
+        <v>8.4263692715306308E-3</v>
       </c>
       <c r="D3">
-        <v>0.0092095284078988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.2095284078987996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>92.8244717896885</v>
+        <v>92.824471789688502</v>
       </c>
       <c r="B4">
-        <v>73.2427932060652</v>
+        <v>73.242793206065201</v>
       </c>
       <c r="C4">
-        <v>25.8506025841115</v>
+        <v>25.850602584111499</v>
       </c>
       <c r="D4">
-        <v>35.3403997337951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>35.340399733795103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1243,69 +647,69 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.13392200426252e-137</v>
+        <v>3.1339220042625201E-137</v>
       </c>
       <c r="D5">
-        <v>7.64393858660986e-241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>7.6439385866098602E-241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.765653317766901</v>
+        <v>0.76565331776690104</v>
       </c>
       <c r="B6">
-        <v>0.656476236487084</v>
+        <v>0.65647623648708398</v>
       </c>
       <c r="C6" s="1">
-        <v>0.201306764297515</v>
+        <v>0.20130676429751501</v>
       </c>
       <c r="D6" s="1">
-        <v>0.307413067076854</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.30741306707685401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.798693235702485</v>
+        <v>0.79869323570248496</v>
       </c>
       <c r="B7">
-        <v>0.692586932923146</v>
+        <v>0.69258693292314599</v>
       </c>
       <c r="C7" s="1">
-        <v>0.234346682233099</v>
+        <v>0.23434668223309901</v>
       </c>
       <c r="D7" s="1">
-        <v>0.343523763512916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.34352376351291602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="B8">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="C8">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="D8">
-        <v>4367.00137236962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>4367.0013723696202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="B9">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="C9">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="D9">
-        <v>1.96050735915485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1.9605073591548501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1319,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>2</v>
       </c>
@@ -1330,67 +734,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.941489361702128</v>
+        <v>0.94148936170212805</v>
       </c>
       <c r="B13">
-        <v>0.683607730851825</v>
+        <v>0.68360773085182502</v>
       </c>
       <c r="C13">
         <v>0.496487119437939</v>
       </c>
       <c r="D13">
-        <v>0.0585106382978723</v>
+        <v>5.85106382978723E-2</v>
       </c>
       <c r="E13">
-        <v>0.316392269148175</v>
+        <v>0.31639226914817498</v>
       </c>
       <c r="F13">
         <v>0.503512880562061</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.00570591039347357</v>
+        <v>5.7059103934735704E-3</v>
       </c>
       <c r="B14">
-        <v>0.0124428026006178</v>
+        <v>1.24428026006178E-2</v>
       </c>
       <c r="C14">
-        <v>0.0139696241133745</v>
+        <v>1.3969624113374501E-2</v>
       </c>
       <c r="D14">
-        <v>0.00570591039347357</v>
+        <v>5.7059103934735704E-3</v>
       </c>
       <c r="E14">
-        <v>0.0124428026006178</v>
+        <v>1.24428026006178E-2</v>
       </c>
       <c r="F14">
-        <v>0.0139696241133745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1.3969624113374501E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>165.002479320216</v>
       </c>
       <c r="B15">
-        <v>54.9400125352694</v>
+        <v>54.940012535269403</v>
       </c>
       <c r="C15">
-        <v>35.5404780693134</v>
+        <v>35.540478069313401</v>
       </c>
       <c r="D15">
-        <v>10.2543913701829</v>
+        <v>10.254391370182899</v>
       </c>
       <c r="E15">
         <v>25.4277335503551</v>
       </c>
       <c r="F15">
-        <v>36.0434093627471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>36.043409362747099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1398,21 +802,21 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.08869491892828e-243</v>
+        <v>3.0886949189282802E-243</v>
       </c>
       <c r="D16">
-        <v>2.13364423337797e-24</v>
+        <v>2.1336442333779701E-24</v>
       </c>
       <c r="E16">
-        <v>3.93397073963056e-133</v>
+        <v>3.9339707396305597E-133</v>
       </c>
       <c r="F16">
-        <v>2.75798393676022e-249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>2.75798393676022E-249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.930302882385045</v>
+        <v>0.93030288238504499</v>
       </c>
       <c r="B17">
         <v>0.659213524784803</v>
@@ -1421,27 +825,27 @@
         <v>0.469099568559041</v>
       </c>
       <c r="D17">
-        <v>0.0473241589807893</v>
+        <v>4.7324158980789302E-2</v>
       </c>
       <c r="E17">
         <v>0.291998063081152</v>
       </c>
       <c r="F17">
-        <v>0.476125329683163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.47612532968316301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.952675841019211</v>
+        <v>0.95267584101921099</v>
       </c>
       <c r="B18">
-        <v>0.708001936918848</v>
+        <v>0.70800193691884805</v>
       </c>
       <c r="C18">
-        <v>0.523874670316837</v>
+        <v>0.52387467031683699</v>
       </c>
       <c r="D18">
-        <v>0.0696971176149554</v>
+        <v>6.9697117614955395E-2</v>
       </c>
       <c r="E18">
         <v>0.340786475215197</v>
@@ -1450,47 +854,47 @@
         <v>0.530900431440959</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="B19">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="C19">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="D19">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="E19">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="F19">
-        <v>4367.00137236962</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>4367.0013723696202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="B20">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="C20">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="D20">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="E20">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="F20">
-        <v>1.96050735915485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>1.9605073591548501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1510,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>5</v>
       </c>
@@ -1527,103 +931,103 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.710756201536224</v>
+        <v>0.71075620153622399</v>
       </c>
       <c r="B24">
-        <v>0.705918672172204</v>
+        <v>0.70591867217220405</v>
       </c>
       <c r="C24">
-        <v>0.729356394701728</v>
+        <v>0.72935639470172797</v>
       </c>
       <c r="D24">
-        <v>0.77194098289331</v>
+        <v>0.77194098289331003</v>
       </c>
       <c r="E24">
-        <v>0.737932523411071</v>
+        <v>0.73793252341107096</v>
       </c>
       <c r="F24">
-        <v>0.289243798463776</v>
+        <v>0.28924379846377601</v>
       </c>
       <c r="G24">
         <v>0.294081327827796</v>
       </c>
       <c r="H24">
-        <v>0.270643605298272</v>
+        <v>0.27064360529827203</v>
       </c>
       <c r="I24">
-        <v>0.22805901710669</v>
+        <v>0.22805901710668999</v>
       </c>
       <c r="J24">
-        <v>0.262067476588929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>0.26206747658892898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.00952343098006898</v>
+        <v>9.5234309800689802E-3</v>
       </c>
       <c r="B25">
-        <v>0.0147732072321103</v>
+        <v>1.47732072321103E-2</v>
       </c>
       <c r="C25">
-        <v>0.026459432381885</v>
+        <v>2.6459432381885001E-2</v>
       </c>
       <c r="D25">
-        <v>0.0120500779825337</v>
+        <v>1.20500779825337E-2</v>
       </c>
       <c r="E25">
-        <v>0.0378518102054043</v>
+        <v>3.7851810205404297E-2</v>
       </c>
       <c r="F25">
-        <v>0.00952343098006898</v>
+        <v>9.5234309800689802E-3</v>
       </c>
       <c r="G25">
-        <v>0.0147732072321103</v>
+        <v>1.47732072321103E-2</v>
       </c>
       <c r="H25">
-        <v>0.026459432381885</v>
+        <v>2.6459432381885001E-2</v>
       </c>
       <c r="I25">
-        <v>0.0120500779825337</v>
+        <v>1.20500779825337E-2</v>
       </c>
       <c r="J25">
-        <v>0.0378518102054043</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>3.7851810205404297E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>74.6323675809404</v>
+        <v>74.632367580940397</v>
       </c>
       <c r="B26">
         <v>47.7837114907489</v>
       </c>
       <c r="C26">
-        <v>27.5650809199169</v>
+        <v>27.565080919916898</v>
       </c>
       <c r="D26">
-        <v>64.0610777799296</v>
+        <v>64.061077779929605</v>
       </c>
       <c r="E26">
-        <v>19.4953033793272</v>
+        <v>19.495303379327201</v>
       </c>
       <c r="F26">
-        <v>30.371806029688</v>
+        <v>30.371806029687999</v>
       </c>
       <c r="G26">
-        <v>19.9063969798376</v>
+        <v>19.906396979837599</v>
       </c>
       <c r="H26">
         <v>10.2286247638314</v>
       </c>
       <c r="I26">
-        <v>18.9259370302214</v>
+        <v>18.925937030221402</v>
       </c>
       <c r="J26">
-        <v>6.9235123806975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>6.9235123806974999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1631,159 +1035,159 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2.3989624338697e-154</v>
+        <v>2.3989624338697001E-154</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3.12048924612614e-81</v>
+        <v>3.12048924612614E-81</v>
       </c>
       <c r="F27">
-        <v>5.42413323406176e-184</v>
+        <v>5.4241332340617603E-184</v>
       </c>
       <c r="G27">
-        <v>1.80200759147947e-84</v>
+        <v>1.80200759147947E-84</v>
       </c>
       <c r="H27">
-        <v>2.76749302567715e-24</v>
+        <v>2.76749302567715E-24</v>
       </c>
       <c r="I27">
-        <v>7.69240566264016e-77</v>
+        <v>7.6924056626401602E-77</v>
       </c>
       <c r="J27">
-        <v>5.04763268078044e-12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>5.0476326807804398E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.692085445015395</v>
+        <v>0.69208544501539504</v>
       </c>
       <c r="B28">
-        <v>0.676955690675332</v>
+        <v>0.67695569067533201</v>
       </c>
       <c r="C28">
-        <v>0.677482482797982</v>
+        <v>0.67748248279798196</v>
       </c>
       <c r="D28">
-        <v>0.748316716330162</v>
+        <v>0.74831671633016195</v>
       </c>
       <c r="E28">
-        <v>0.663723770946043</v>
+        <v>0.66372377094604296</v>
       </c>
       <c r="F28">
-        <v>0.270573041942948</v>
+        <v>0.27057304194294801</v>
       </c>
       <c r="G28">
-        <v>0.265118346330924</v>
+        <v>0.26511834633092402</v>
       </c>
       <c r="H28">
-        <v>0.218769693394526</v>
+        <v>0.21876969339452601</v>
       </c>
       <c r="I28">
-        <v>0.204434750543543</v>
+        <v>0.20443475054354299</v>
       </c>
       <c r="J28">
-        <v>0.187858724123901</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>0.18785872412390101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.729426958057052</v>
+        <v>0.72942695805705204</v>
       </c>
       <c r="B29">
-        <v>0.734881653669076</v>
+        <v>0.73488165366907598</v>
       </c>
       <c r="C29">
-        <v>0.781230306605474</v>
+        <v>0.78123030660547399</v>
       </c>
       <c r="D29">
-        <v>0.795565249456457</v>
+        <v>0.79556524945645701</v>
       </c>
       <c r="E29">
-        <v>0.812141275876099</v>
+        <v>0.81214127587609897</v>
       </c>
       <c r="F29">
-        <v>0.307914554984605</v>
+        <v>0.30791455498460502</v>
       </c>
       <c r="G29">
-        <v>0.323044309324668</v>
+        <v>0.32304430932466799</v>
       </c>
       <c r="H29">
-        <v>0.322517517202018</v>
+        <v>0.32251751720201799</v>
       </c>
       <c r="I29">
         <v>0.251683283669838</v>
       </c>
       <c r="J29">
-        <v>0.336276229053957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>0.33627622905395699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="B30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="C30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="D30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="E30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="F30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="G30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="H30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="I30">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="J30">
-        <v>4367.00137236962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>4367.0013723696202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="B31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="C31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="D31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="E31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="F31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="G31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="H31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="I31">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="J31">
-        <v>1.96050735915485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>1.9605073591548501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1815,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>10</v>
       </c>
@@ -1826,67 +1230,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.717971721552456</v>
+        <v>0.71797172155245603</v>
       </c>
       <c r="B35">
-        <v>0.719780623907681</v>
+        <v>0.71978062390768105</v>
       </c>
       <c r="C35">
-        <v>0.767899358885167</v>
+        <v>0.76789935888516703</v>
       </c>
       <c r="D35">
-        <v>0.282028278447544</v>
+        <v>0.28202827844754402</v>
       </c>
       <c r="E35">
-        <v>0.280219376092319</v>
+        <v>0.28021937609231901</v>
       </c>
       <c r="F35">
         <v>0.232100641114833</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.0098892518445958</v>
+        <v>9.8892518445957995E-3</v>
       </c>
       <c r="B36">
-        <v>0.00987696301010775</v>
+        <v>9.8769630101077505E-3</v>
       </c>
       <c r="C36">
-        <v>0.0154889472844695</v>
+        <v>1.5488947284469499E-2</v>
       </c>
       <c r="D36">
-        <v>0.0098892518445958</v>
+        <v>9.8892518445957995E-3</v>
       </c>
       <c r="E36">
-        <v>0.00987696301010775</v>
+        <v>9.8769630101077505E-3</v>
       </c>
       <c r="F36">
-        <v>0.0154889472844695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>1.5488947284469499E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>72.6012172442354</v>
       </c>
       <c r="B37">
-        <v>72.8746906484393</v>
+        <v>72.874690648439298</v>
       </c>
       <c r="C37">
         <v>49.5772465863528</v>
       </c>
       <c r="D37">
-        <v>28.5186668192361</v>
+        <v>28.518666819236099</v>
       </c>
       <c r="E37">
-        <v>28.371005926169</v>
+        <v>28.371005926169001</v>
       </c>
       <c r="F37">
         <v>14.9849203339698</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1897,96 +1301,96 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>3.36324886170915e-164</v>
+        <v>3.3632488617091499E-164</v>
       </c>
       <c r="E38">
-        <v>1.16851576728857e-162</v>
+        <v>1.1685157672885701E-162</v>
       </c>
       <c r="F38">
-        <v>1.53996775227739e-49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>1.53996775227739E-49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.69858377053459</v>
+        <v>0.69858377053458998</v>
       </c>
       <c r="B39">
-        <v>0.700416765240264</v>
+        <v>0.70041676524026397</v>
       </c>
       <c r="C39">
-        <v>0.737533163748403</v>
+        <v>0.73753316374840305</v>
       </c>
       <c r="D39">
-        <v>0.262640327429678</v>
+        <v>0.26264032742967802</v>
       </c>
       <c r="E39">
-        <v>0.260855517424903</v>
+        <v>0.26085551742490298</v>
       </c>
       <c r="F39">
         <v>0.201734445978069</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.737359672570322</v>
+        <v>0.73735967257032198</v>
       </c>
       <c r="B40">
-        <v>0.739144482575097</v>
+        <v>0.73914448257509702</v>
       </c>
       <c r="C40">
         <v>0.798265554021931</v>
       </c>
       <c r="D40">
-        <v>0.30141622946541</v>
+        <v>0.30141622946541002</v>
       </c>
       <c r="E40">
-        <v>0.299583234759736</v>
+        <v>0.29958323475973597</v>
       </c>
       <c r="F40">
         <v>0.262466836251597</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="B41">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="C41">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="D41">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="E41">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="F41">
-        <v>4367.00137236962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>4367.0013723696202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="B42">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="C42">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="D42">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="E42">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="F42">
-        <v>1.96050735915485</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>1.9605073591548501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2006,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="7:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2026,123 +1430,123 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.774890786913266</v>
+        <v>0.77489078691326596</v>
       </c>
       <c r="B46">
-        <v>0.785972432736539</v>
+        <v>0.78597243273653905</v>
       </c>
       <c r="C46">
-        <v>0.746736041725426</v>
+        <v>0.74673604172542596</v>
       </c>
       <c r="D46">
-        <v>0.680323494374999</v>
+        <v>0.68032349437499895</v>
       </c>
       <c r="E46">
-        <v>0.660756038459534</v>
+        <v>0.66075603845953401</v>
       </c>
       <c r="F46">
-        <v>0.5491806333348</v>
+        <v>0.54918063333480005</v>
       </c>
       <c r="G46">
-        <v>0.225109213086735</v>
+        <v>0.22510921308673501</v>
       </c>
       <c r="H46">
         <v>0.214027567263461</v>
       </c>
       <c r="I46">
-        <v>0.253263958274574</v>
+        <v>0.25326395827457399</v>
       </c>
       <c r="J46">
-        <v>0.319676505625002</v>
+        <v>0.31967650562500199</v>
       </c>
       <c r="K46">
-        <v>0.339243961540466</v>
+        <v>0.33924396154046599</v>
       </c>
       <c r="L46">
-        <v>0.4508193666652</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>0.45081936666520001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.061501756288455</v>
+        <v>6.1501756288455001E-2</v>
       </c>
       <c r="B47">
-        <v>0.011382318635146</v>
+        <v>1.1382318635146001E-2</v>
       </c>
       <c r="C47">
-        <v>0.0106266796798821</v>
+        <v>1.06266796798821E-2</v>
       </c>
       <c r="D47">
-        <v>0.0147899859102703</v>
+        <v>1.47899859102703E-2</v>
       </c>
       <c r="E47">
-        <v>0.0234820459236033</v>
+        <v>2.3482045923603301E-2</v>
       </c>
       <c r="F47">
-        <v>0.0336648097355209</v>
+        <v>3.3664809735520898E-2</v>
       </c>
       <c r="G47">
-        <v>0.061501756288455</v>
+        <v>6.1501756288455001E-2</v>
       </c>
       <c r="H47">
-        <v>0.011382318635146</v>
+        <v>1.1382318635146001E-2</v>
       </c>
       <c r="I47">
-        <v>0.0106266796798821</v>
+        <v>1.06266796798821E-2</v>
       </c>
       <c r="J47">
-        <v>0.0147899859102703</v>
+        <v>1.47899859102703E-2</v>
       </c>
       <c r="K47">
-        <v>0.0234820459236033</v>
+        <v>2.3482045923603301E-2</v>
       </c>
       <c r="L47">
-        <v>0.0336648097355209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>3.3664809735520898E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>12.5994903833133</v>
+        <v>12.599490383313301</v>
       </c>
       <c r="B48">
-        <v>69.0520497563328</v>
+        <v>69.052049756332806</v>
       </c>
       <c r="C48">
-        <v>70.2699304223038</v>
+        <v>70.269930422303801</v>
       </c>
       <c r="D48">
         <v>45.9989278220052</v>
       </c>
       <c r="E48">
-        <v>28.1387763489281</v>
+        <v>28.138776348928101</v>
       </c>
       <c r="F48">
         <v>16.3131958163227</v>
       </c>
       <c r="G48">
-        <v>3.66020788139658</v>
+        <v>3.6602078813965799</v>
       </c>
       <c r="H48">
-        <v>18.8035121950103</v>
+        <v>18.803512195010299</v>
       </c>
       <c r="I48">
-        <v>23.8328401630512</v>
+        <v>23.832840163051198</v>
       </c>
       <c r="J48">
         <v>21.6143887874169</v>
       </c>
       <c r="K48">
-        <v>14.4469507743987</v>
+        <v>14.446950774398699</v>
       </c>
       <c r="L48">
         <v>13.3914128791147</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7.93068418801107e-33</v>
+        <v>7.9306841880110706E-33</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2154,150 +1558,150 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>6.55536689215813e-119</v>
+        <v>6.5553668921581305E-119</v>
       </c>
       <c r="F49">
-        <v>3.84574790805152e-52</v>
+        <v>3.8457479080515199E-52</v>
       </c>
       <c r="G49">
-        <v>0.000271784574346124</v>
+        <v>2.71784574346124E-4</v>
       </c>
       <c r="H49">
-        <v>3.87400363422944e-72</v>
+        <v>3.8740036342294402E-72</v>
       </c>
       <c r="I49">
-        <v>3.12559598749397e-101</v>
+        <v>3.1255959874939699E-101</v>
       </c>
       <c r="J49">
-        <v>6.15564374807743e-95</v>
+        <v>6.1556437480774296E-95</v>
       </c>
       <c r="K49">
-        <v>7.67620952267995e-42</v>
+        <v>7.6762095226799502E-42</v>
       </c>
       <c r="L49">
-        <v>3.45695114929787e-37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>3.4569511492978699E-37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.654132064414724</v>
+        <v>0.65413206441472405</v>
       </c>
       <c r="B50">
         <v>0.763648434195769</v>
       </c>
       <c r="C50">
-        <v>0.725884779912868</v>
+        <v>0.72588477991286804</v>
       </c>
       <c r="D50">
-        <v>0.651321257947212</v>
+        <v>0.65132125794721196</v>
       </c>
       <c r="E50">
         <v>0.614656419448252</v>
       </c>
       <c r="F50">
-        <v>0.483103051530429</v>
+        <v>0.48310305153042898</v>
       </c>
       <c r="G50">
         <v>0.104350490588193</v>
       </c>
       <c r="H50">
-        <v>0.191703568722691</v>
+        <v>0.19170356872269101</v>
       </c>
       <c r="I50">
-        <v>0.232412696462017</v>
+        <v>0.23241269646201701</v>
       </c>
       <c r="J50">
-        <v>0.290674269197215</v>
+        <v>0.29067426919721501</v>
       </c>
       <c r="K50">
-        <v>0.293144342529184</v>
+        <v>0.29314434252918398</v>
       </c>
       <c r="L50">
-        <v>0.38474178486083</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>0.38474178486082999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.895649509411807</v>
+        <v>0.89564950941180699</v>
       </c>
       <c r="B51">
-        <v>0.808296431277309</v>
+        <v>0.80829643127730899</v>
       </c>
       <c r="C51">
-        <v>0.767587303537983</v>
+        <v>0.76758730353798299</v>
       </c>
       <c r="D51">
-        <v>0.709325730802785</v>
+        <v>0.70932573080278505</v>
       </c>
       <c r="E51">
-        <v>0.706855657470816</v>
+        <v>0.70685565747081602</v>
       </c>
       <c r="F51">
-        <v>0.61525821513917</v>
+        <v>0.61525821513917001</v>
       </c>
       <c r="G51">
-        <v>0.345867935585276</v>
+        <v>0.34586793558527601</v>
       </c>
       <c r="H51">
         <v>0.236351565804231</v>
       </c>
       <c r="I51">
-        <v>0.274115220087132</v>
+        <v>0.27411522008713202</v>
       </c>
       <c r="J51">
-        <v>0.348678742052788</v>
+        <v>0.34867874205278798</v>
       </c>
       <c r="K51">
         <v>0.385343580551748</v>
       </c>
       <c r="L51">
-        <v>0.516896948469571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>0.51689694846957102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>672.003424164274</v>
+        <v>672.00342416427395</v>
       </c>
       <c r="B52">
-        <v>1793.67679428711</v>
+        <v>1793.6767942871099</v>
       </c>
       <c r="C52">
         <v>1080.71040311263</v>
       </c>
       <c r="D52">
-        <v>2438.26406924481</v>
+        <v>2438.2640692448099</v>
       </c>
       <c r="E52">
         <v>737.505366214937</v>
       </c>
       <c r="F52">
-        <v>835.108295203115</v>
+        <v>835.10829520311495</v>
       </c>
       <c r="G52">
-        <v>672.003424164273</v>
+        <v>672.00342416427304</v>
       </c>
       <c r="H52">
-        <v>1793.6767942871</v>
+        <v>1793.6767942870999</v>
       </c>
       <c r="I52">
         <v>1080.7104031126</v>
       </c>
       <c r="J52">
-        <v>2438.26406924479</v>
+        <v>2438.2640692447899</v>
       </c>
       <c r="K52">
-        <v>737.505366214941</v>
+        <v>737.50536621494098</v>
       </c>
       <c r="L52">
-        <v>835.108295203114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>835.10829520311404</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1.96350039065812</v>
+        <v>1.9635003906581201</v>
       </c>
       <c r="B53">
-        <v>1.96128743680033</v>
+        <v>1.9612874368003299</v>
       </c>
       <c r="C53">
         <v>1.96216150676227</v>
@@ -2306,16 +1710,16 @@
         <v>1.96093739397324</v>
       </c>
       <c r="E53">
-        <v>1.96318579570378</v>
+        <v>1.9631857957037799</v>
       </c>
       <c r="F53">
         <v>1.96280871103959</v>
       </c>
       <c r="G53">
-        <v>1.96350039065812</v>
+        <v>1.9635003906581201</v>
       </c>
       <c r="H53">
-        <v>1.96128743680033</v>
+        <v>1.9612874368003299</v>
       </c>
       <c r="I53">
         <v>1.96216150676227</v>
@@ -2324,13 +1728,13 @@
         <v>1.96093739397324</v>
       </c>
       <c r="K53">
-        <v>1.96318579570378</v>
+        <v>1.9631857957037799</v>
       </c>
       <c r="L53">
         <v>1.96280871103959</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -2368,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -2376,49 +1780,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.788535941696545</v>
+        <v>0.78853594169654495</v>
       </c>
       <c r="B57">
         <v>0.678120091600382</v>
       </c>
       <c r="C57">
-        <v>0.211464058303455</v>
+        <v>0.21146405830345499</v>
       </c>
       <c r="D57">
         <v>0.321879908399617</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.00907002923643827</v>
+        <v>9.0700292364382703E-3</v>
       </c>
       <c r="B58">
-        <v>0.00909366637466663</v>
+        <v>9.0936663746666296E-3</v>
       </c>
       <c r="C58">
-        <v>0.00907002923643827</v>
+        <v>9.0700292364382703E-3</v>
       </c>
       <c r="D58">
-        <v>0.00909366637466663</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>9.0936663746666296E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>86.9386328468107</v>
+        <v>86.938632846810705</v>
       </c>
       <c r="B59">
-        <v>74.5705927247899</v>
+        <v>74.570592724789904</v>
       </c>
       <c r="C59">
-        <v>23.3145950019556</v>
+        <v>23.314595001955599</v>
       </c>
       <c r="D59">
         <v>35.3960542577545</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -2426,55 +1830,55 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>8.88619775590693e-110</v>
+        <v>8.8861977559069294E-110</v>
       </c>
       <c r="D60">
-        <v>2.73174471020962e-236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>2.7317447102096201E-236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.77075111039747</v>
+        <v>0.77075111039747002</v>
       </c>
       <c r="B61">
-        <v>0.660290937917601</v>
+        <v>0.66029093791760096</v>
       </c>
       <c r="C61">
-        <v>0.193679227004379</v>
+        <v>0.19367922700437901</v>
       </c>
       <c r="D61">
-        <v>0.304050754716836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.30405075471683601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.806320772995621</v>
+        <v>0.80632077299562099</v>
       </c>
       <c r="B62">
-        <v>0.695949245283164</v>
+        <v>0.69594924528316404</v>
       </c>
       <c r="C62">
-        <v>0.22924888960253</v>
+        <v>0.22924888960253001</v>
       </c>
       <c r="D62">
-        <v>0.339709062082399</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.33970906208239898</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2724.57957927178</v>
+        <v>2724.5795792717799</v>
       </c>
       <c r="B63">
-        <v>3660.60843533609</v>
+        <v>3660.6084353360902</v>
       </c>
       <c r="C63">
         <v>2724.5795792718</v>
       </c>
       <c r="D63">
-        <v>3660.60843533612</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>3660.6084353361198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.96083505746884</v>
       </c>
@@ -2488,7 +1892,7 @@
         <v>1.96061224903195</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -2502,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>21</v>
       </c>
@@ -2510,119 +1914,119 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.783901266008729</v>
       </c>
       <c r="B68">
-        <v>0.715596146524825</v>
+        <v>0.71559614652482495</v>
       </c>
       <c r="C68">
         <v>0.216098733991271</v>
       </c>
       <c r="D68">
-        <v>0.284403853475175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.28440385347517499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.023016150279833</v>
+        <v>2.3016150279833E-2</v>
       </c>
       <c r="B69">
-        <v>0.00708382715864471</v>
+        <v>7.0838271586447102E-3</v>
       </c>
       <c r="C69">
-        <v>0.023016150279833</v>
+        <v>2.3016150279833E-2</v>
       </c>
       <c r="D69">
-        <v>0.00708382715864471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>7.0838271586447102E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>34.0587481606597</v>
+        <v>34.058748160659697</v>
       </c>
       <c r="B70">
         <v>101.018295689436</v>
       </c>
       <c r="C70">
-        <v>9.38900430193225</v>
+        <v>9.3890043019322498</v>
       </c>
       <c r="D70">
-        <v>40.1483332534595</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>40.148333253459498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2.57490649640157e-221</v>
+        <v>2.5749064964015701E-221</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1.02927048403621e-20</v>
+        <v>1.02927048403621E-20</v>
       </c>
       <c r="D71">
-        <v>3.41496446873483e-300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>3.41496446873483E-300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.738775632423862</v>
+        <v>0.73877563242386202</v>
       </c>
       <c r="B72">
-        <v>0.701708244150693</v>
+        <v>0.70170824415069299</v>
       </c>
       <c r="C72">
-        <v>0.170973100406403</v>
+        <v>0.17097310040640301</v>
       </c>
       <c r="D72">
-        <v>0.270515951101043</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.27051595110104298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.829026899593597</v>
+        <v>0.82902689959359699</v>
       </c>
       <c r="B73">
-        <v>0.729484048898957</v>
+        <v>0.72948404889895702</v>
       </c>
       <c r="C73">
-        <v>0.261224367576138</v>
+        <v>0.26122436757613798</v>
       </c>
       <c r="D73">
-        <v>0.298291755849307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.29829175584930701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3688.42959045934</v>
       </c>
       <c r="B74">
-        <v>4358.9647797077</v>
+        <v>4358.9647797076996</v>
       </c>
       <c r="C74">
         <v>3688.42959045936</v>
       </c>
       <c r="D74">
-        <v>4358.9647797077</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>4358.9647797076996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1.96060735771296</v>
+        <v>1.9606073577129599</v>
       </c>
       <c r="B75">
         <v>1.96050836124429</v>
       </c>
       <c r="C75">
-        <v>1.96060735771296</v>
+        <v>1.9606073577129599</v>
       </c>
       <c r="D75">
         <v>1.96050836124429</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -2636,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>23</v>
       </c>
@@ -2644,40 +2048,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.71825908870435</v>
+        <v>0.71825908870434996</v>
       </c>
       <c r="B79">
-        <v>0.771388205725509</v>
+        <v>0.77138820572550904</v>
       </c>
       <c r="C79">
-        <v>0.28174091129565</v>
+        <v>0.28174091129564999</v>
       </c>
       <c r="D79">
-        <v>0.228611794274491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.22861179427449099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.00709502906759705</v>
+        <v>7.0950290675970496E-3</v>
       </c>
       <c r="B80">
-        <v>0.0162683284842079</v>
+        <v>1.6268328484207902E-2</v>
       </c>
       <c r="C80">
-        <v>0.00709502906759705</v>
+        <v>7.0950290675970496E-3</v>
       </c>
       <c r="D80">
-        <v>0.0162683284842079</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>1.6268328484207902E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>101.234129115078</v>
+        <v>101.23412911507801</v>
       </c>
       <c r="B81">
-        <v>47.4165619703535</v>
+        <v>47.416561970353499</v>
       </c>
       <c r="C81">
         <v>39.7096204414946</v>
@@ -2686,77 +2090,77 @@
         <v>14.0525681231733</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
       <c r="B82">
-        <v>2.80310233464449e-216</v>
+        <v>2.80310233464449E-216</v>
       </c>
       <c r="C82">
-        <v>1.37091881107244e-286</v>
+        <v>1.37091881107244E-286</v>
       </c>
       <c r="D82">
-        <v>1.68431301725856e-39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>1.6843130172585599E-39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.70434843786403</v>
+        <v>0.70434843786403001</v>
       </c>
       <c r="B83">
-        <v>0.739445171164436</v>
+        <v>0.73944517116443598</v>
       </c>
       <c r="C83">
-        <v>0.267830260455331</v>
+        <v>0.26783026045533098</v>
       </c>
       <c r="D83">
-        <v>0.196668759713417</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.19666875971341699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.732169739544669</v>
+        <v>0.73216973954466902</v>
       </c>
       <c r="B84">
-        <v>0.803331240286583</v>
+        <v>0.80333124028658298</v>
       </c>
       <c r="C84">
-        <v>0.29565156213597</v>
+        <v>0.29565156213596999</v>
       </c>
       <c r="D84">
-        <v>0.260554828835565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.26055482883556502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3621.29950008403</v>
+        <v>3621.2995000840301</v>
       </c>
       <c r="B85">
-        <v>670.082399483003</v>
+        <v>670.08239948300297</v>
       </c>
       <c r="C85">
-        <v>3621.29950008404</v>
+        <v>3621.2995000840401</v>
       </c>
       <c r="D85">
-        <v>670.082399482993</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>670.08239948299297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1.96061928820691</v>
       </c>
       <c r="B86">
-        <v>1.96351054701666</v>
+        <v>1.9635105470166601</v>
       </c>
       <c r="C86">
         <v>1.96061928820691</v>
       </c>
       <c r="D86">
-        <v>1.96351054701666</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>1.9635105470166601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -2770,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>25</v>
       </c>
@@ -2781,49 +2185,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.71108337850222</v>
+        <v>0.71108337850222003</v>
       </c>
       <c r="B90">
-        <v>0.726986499445625</v>
+        <v>0.72698649944562499</v>
       </c>
       <c r="C90">
-        <v>0.73780201186789</v>
+        <v>0.73780201186788996</v>
       </c>
       <c r="D90">
-        <v>0.28891662149778</v>
+        <v>0.28891662149778002</v>
       </c>
       <c r="E90">
-        <v>0.273013500554375</v>
+        <v>0.27301350055437501</v>
       </c>
       <c r="F90">
-        <v>0.26219798813211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.26219798813210998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.0160632556452705</v>
+        <v>1.6063255645270499E-2</v>
       </c>
       <c r="B91">
-        <v>0.0116167509190377</v>
+        <v>1.16167509190377E-2</v>
       </c>
       <c r="C91">
-        <v>0.00893003945066221</v>
+        <v>8.9300394506622097E-3</v>
       </c>
       <c r="D91">
-        <v>0.0160632556452705</v>
+        <v>1.6063255645270499E-2</v>
       </c>
       <c r="E91">
-        <v>0.0116167509190377</v>
+        <v>1.16167509190377E-2</v>
       </c>
       <c r="F91">
-        <v>0.00893003945066221</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>8.9300394506622097E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>44.2676997867232</v>
+        <v>44.267699786723199</v>
       </c>
       <c r="B92">
         <v>62.5808803608099</v>
@@ -2835,13 +2239,13 @@
         <v>17.9861808762812</v>
       </c>
       <c r="E92">
-        <v>23.5017090800283</v>
+        <v>23.501709080028299</v>
       </c>
       <c r="F92">
-        <v>29.3613471229029</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>29.361347122902899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -2852,96 +2256,96 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>7.82748577464692e-70</v>
+        <v>7.8274857746469201E-70</v>
       </c>
       <c r="E93">
-        <v>4.16074951735495e-115</v>
+        <v>4.1607495173549501E-115</v>
       </c>
       <c r="F93">
-        <v>4.26150062438118e-173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>4.2615006243811799E-173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.679591247597682</v>
+        <v>0.67959124759768197</v>
       </c>
       <c r="B94">
-        <v>0.704211773779383</v>
+        <v>0.70421177377938304</v>
       </c>
       <c r="C94">
-        <v>0.720294603807323</v>
+        <v>0.72029460380732302</v>
       </c>
       <c r="D94">
-        <v>0.257424490593241</v>
+        <v>0.25742449059324102</v>
       </c>
       <c r="E94">
-        <v>0.250238774888133</v>
+        <v>0.25023877488813301</v>
       </c>
       <c r="F94">
-        <v>0.244690580071544</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.24469058007154401</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.742575509406759</v>
+        <v>0.74257550940675898</v>
       </c>
       <c r="B95">
-        <v>0.749761225111867</v>
+        <v>0.74976122511186705</v>
       </c>
       <c r="C95">
-        <v>0.755309419928456</v>
+        <v>0.75530941992845602</v>
       </c>
       <c r="D95">
-        <v>0.320408752402318</v>
+        <v>0.32040875240231798</v>
       </c>
       <c r="E95">
-        <v>0.295788226220617</v>
+        <v>0.29578822622061701</v>
       </c>
       <c r="F95">
-        <v>0.279705396192677</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.27970539619267698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="B96">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="C96">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="D96">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="E96">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="F96">
-        <v>4367.00137236962</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>4367.0013723696202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="B97">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="C97">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="D97">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="E97">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="F97">
-        <v>1.96050735915485</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>1.9605073591548501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -2961,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>28</v>
       </c>
@@ -2972,67 +2376,67 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.747881994576342</v>
+        <v>0.74788199457634197</v>
       </c>
       <c r="B101">
-        <v>0.754946759467044</v>
+        <v>0.75494675946704404</v>
       </c>
       <c r="C101">
-        <v>0.705667825702224</v>
+        <v>0.70566782570222397</v>
       </c>
       <c r="D101">
-        <v>0.252118005423659</v>
+        <v>0.25211800542365898</v>
       </c>
       <c r="E101">
-        <v>0.245053240532955</v>
+        <v>0.24505324053295499</v>
       </c>
       <c r="F101">
-        <v>0.294332174297776</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.29433217429777597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.014838424687831</v>
+        <v>1.4838424687831E-2</v>
       </c>
       <c r="B102">
-        <v>0.0129328135850032</v>
+        <v>1.29328135850032E-2</v>
       </c>
       <c r="C102">
-        <v>0.00872390241607824</v>
+        <v>8.72390241607824E-3</v>
       </c>
       <c r="D102">
-        <v>0.014838424687831</v>
+        <v>1.4838424687831E-2</v>
       </c>
       <c r="E102">
-        <v>0.0129328135850032</v>
+        <v>1.29328135850032E-2</v>
       </c>
       <c r="F102">
-        <v>0.00872390241607824</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>8.72390241607824E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>50.4017111189491</v>
+        <v>50.401711118949102</v>
       </c>
       <c r="B103">
-        <v>58.3745180045335</v>
+        <v>58.374518004533499</v>
       </c>
       <c r="C103">
-        <v>80.8890095333564</v>
+        <v>80.889009533356401</v>
       </c>
       <c r="D103">
         <v>16.9908875590022</v>
       </c>
       <c r="E103">
-        <v>18.9481769703321</v>
+        <v>18.948176970332099</v>
       </c>
       <c r="F103">
-        <v>33.7385908576097</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>33.738590857609701</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -3043,96 +2447,96 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>9.56908787372094e-63</v>
+        <v>9.56908787372094E-63</v>
       </c>
       <c r="E104">
-        <v>5.20675163881994e-77</v>
+        <v>5.2067516388199403E-77</v>
       </c>
       <c r="F104">
-        <v>5.88432383010961e-222</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>5.8843238301096097E-222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.718791153777584</v>
+        <v>0.71879115377758396</v>
       </c>
       <c r="B105">
-        <v>0.729591883259068</v>
+        <v>0.72959188325906799</v>
       </c>
       <c r="C105">
-        <v>0.688564550814954</v>
+        <v>0.68856455081495405</v>
       </c>
       <c r="D105">
-        <v>0.223027164624901</v>
+        <v>0.22302716462490099</v>
       </c>
       <c r="E105">
         <v>0.219698364324979</v>
       </c>
       <c r="F105">
-        <v>0.277228899410506</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>0.27722889941050599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.776972835375099</v>
+        <v>0.77697283537509898</v>
       </c>
       <c r="B106">
-        <v>0.780301635675021</v>
+        <v>0.78030163567502098</v>
       </c>
       <c r="C106">
-        <v>0.722771100589494</v>
+        <v>0.72277110058949401</v>
       </c>
       <c r="D106">
-        <v>0.281208846222416</v>
+        <v>0.28120884622241599</v>
       </c>
       <c r="E106">
-        <v>0.270408116740932</v>
+        <v>0.27040811674093201</v>
       </c>
       <c r="F106">
-        <v>0.311435449185046</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0.31143544918504601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="B107">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="C107">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="D107">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="E107">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="F107">
-        <v>4367.00137236962</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>4367.0013723696202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="B108">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="C108">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="D108">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="E108">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="F108">
-        <v>1.96050735915485</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>1.9605073591548501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -3152,36 +2556,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.72811883138447</v>
+        <v>0.72811883138446998</v>
       </c>
       <c r="B112">
-        <v>0.27188116861553</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.27188116861553002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.00630535618466255</v>
+        <v>6.3053561846625498E-3</v>
       </c>
       <c r="B113">
-        <v>0.00630535618466255</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>6.3053561846625498E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>115.476241160742</v>
+        <v>115.47624116074201</v>
       </c>
       <c r="B114">
-        <v>43.1190817224357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>43.119081722435702</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -3189,39 +2593,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.715757134182347</v>
+        <v>0.71575713418234699</v>
       </c>
       <c r="B116">
-        <v>0.259519471413406</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.25951947141340598</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.740480528586594</v>
+        <v>0.74048052858659397</v>
       </c>
       <c r="B117">
-        <v>0.284242865817653</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.28424286581765301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>4367.00137236962</v>
+        <v>4367.0013723696202</v>
       </c>
       <c r="B118">
-        <v>4367.00137236962</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>4367.0013723696202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1.96050735915485</v>
+        <v>1.9605073591548501</v>
       </c>
       <c r="B119">
-        <v>1.96050735915485</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>1.9605073591548501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
@@ -3229,12 +2633,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="123" ht="14.8" spans="1:2">
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
@@ -3242,7 +2646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" ht="14.8" spans="1:2">
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -3250,7 +2654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" ht="14.8" spans="1:2">
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -3258,239 +2662,239 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" ht="14.8" spans="1:2">
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="127" ht="14.8" spans="1:2">
+      <c r="B126" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="128" ht="14.8" spans="1:2">
+      <c r="B127" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" ht="14.8" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" ht="14.8" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>7</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" ht="14.8" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>8</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="132" ht="14.8" spans="1:2">
-      <c r="A132" t="s">
-        <v>42</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="133" ht="14.8" spans="1:2">
+    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" ht="14.8" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>10</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="135" ht="14.8" spans="1:2">
+      <c r="B134" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" ht="14.8" spans="1:2">
+      <c r="B135" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" ht="14.8" spans="1:2">
+      <c r="B136" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="138" ht="14.8" spans="1:2">
+      <c r="B137" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>14</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" ht="14.8" spans="1:2">
+      <c r="B138" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" ht="14.8" spans="1:2">
+      <c r="B139" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>16</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="141" ht="14.8" spans="1:2">
+      <c r="B140" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>17</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="142" ht="14.8" spans="1:2">
+      <c r="B141" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>18</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" ht="14.8" spans="1:2">
+      <c r="B142" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>19</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" ht="14.8" spans="1:2">
+      <c r="B143" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" ht="14.8" spans="1:2">
+      <c r="B144" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>21</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" ht="14.8" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>22</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" ht="14.8" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>23</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" ht="14.8" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>24</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" ht="14.8" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>25</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" ht="14.8" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" ht="14.8" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>27</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="152" ht="14.8" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>28</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="153" ht="14.8" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>29</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="154" ht="14.8" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>30</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="155" ht="14.8" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -3499,7 +2903,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>